--- a/Plots and Tables/RVCAT/ns_biomass_summary.xlsx
+++ b/Plots and Tables/RVCAT/ns_biomass_summary.xlsx
@@ -2260,6 +2260,56 @@
         <v>0.93</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2020.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
